--- a/R/CH83-ClassificationTask/File2.xlsx
+++ b/R/CH83-ClassificationTask/File2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafrocBook/R/CH83-ClassificationTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A95E05-DE2C-8340-B70E-191786E162B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3595BB46-0B74-1B40-8925-4E45FECAC45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18500" yWindow="7220" windowWidth="10000" windowHeight="9560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1801,7 +1801,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1852,7 +1852,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>26</v>

--- a/R/CH83-ClassificationTask/File2.xlsx
+++ b/R/CH83-ClassificationTask/File2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafrocBook/R/CH83-ClassificationTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3595BB46-0B74-1B40-8925-4E45FECAC45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587255F7-68CF-3842-940D-076AF5A414BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18500" yWindow="7220" windowWidth="10000" windowHeight="9560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>ClassTrue</t>
   </si>
   <si>
-    <t>ClassRx</t>
-  </si>
-  <si>
     <t>CL-IC</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>ClassDx</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1667,7 @@
         <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1687,10 +1687,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1710,10 +1710,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1733,10 +1733,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1756,10 +1756,10 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1776,13 +1776,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +1801,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1832,7 +1832,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1849,16 +1849,16 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1875,13 +1875,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1895,16 +1895,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1921,13 +1921,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1944,13 +1944,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1967,13 +1967,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1990,13 +1990,13 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2045,10 +2045,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2068,10 +2068,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2091,10 +2091,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
